--- a/Community/Pit_Dig.xlsx
+++ b/Community/Pit_Dig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\Survey123 Samples and Templates\Community Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Survey123Community/Community/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -3612,7 +3615,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3654,7 +3657,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3681,15 +3684,15 @@
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.453125" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1"/>
-    <col min="6" max="6" width="24.453125" style="1"/>
+    <col min="1" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1"/>
+    <col min="6" max="6" width="24.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3774,7 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3797,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -3808,7 +3811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>266</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3876,7 +3879,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -3933,7 +3936,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -4056,9 +4059,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -4072,15 +4072,15 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>267</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>267</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>267</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>267</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>267</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>267</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>267</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>267</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>267</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>267</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>267</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>267</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>267</v>
       </c>
@@ -4303,11 +4303,6 @@
   </dataValidations>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4319,16 +4314,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4345,7 +4340,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>320</v>
       </c>
@@ -4353,18 +4348,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4374,19 +4364,19 @@
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="2" width="74.54296875" customWidth="1"/>
-    <col min="3" max="3" width="52.81640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4394,7 +4384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -4405,7 +4395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4416,7 +4406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -4427,7 +4417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -4438,7 +4428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4449,7 +4439,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4465,7 +4455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -4473,7 +4463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>249</v>
       </c>
@@ -4481,7 +4471,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4489,7 +4479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4497,7 +4487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4505,7 +4495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4513,7 +4503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -4521,7 +4511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -4529,7 +4519,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>217</v>
       </c>
@@ -4537,7 +4527,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>218</v>
       </c>
@@ -4545,7 +4535,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +4543,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>246</v>
       </c>
@@ -4561,7 +4551,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>211</v>
       </c>
@@ -4569,7 +4559,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>212</v>
       </c>
@@ -4577,17 +4567,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4595,21 +4585,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4617,12 +4607,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
         <v>228</v>
       </c>
@@ -4630,7 +4620,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4638,7 +4628,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4646,7 +4636,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -4654,7 +4644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -4662,7 +4652,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4670,7 +4660,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -4678,7 +4668,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>242</v>
       </c>
@@ -4686,7 +4676,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>322</v>
       </c>
@@ -4694,7 +4684,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>324</v>
       </c>
@@ -4702,7 +4692,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -4710,7 +4700,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -4718,7 +4708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>327</v>
       </c>
@@ -4726,12 +4716,12 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -4747,7 +4737,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="14" t="s">
         <v>233</v>
       </c>
@@ -4755,12 +4745,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14"/>
       <c r="B55"/>
       <c r="C55" s="5"/>
@@ -4774,7 +4764,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
         <v>98</v>
       </c>
@@ -4791,7 +4781,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -4802,7 +4792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -4813,7 +4803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -4824,7 +4814,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -4835,7 +4825,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,7 +4836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,7 +4847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -4868,7 +4858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4879,7 +4869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -4890,7 +4880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
@@ -4901,7 +4891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -4912,7 +4902,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>87</v>
       </c>
@@ -4923,7 +4913,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -4934,7 +4924,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -4945,7 +4935,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -4956,7 +4946,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
@@ -4970,7 +4960,7 @@
       <c r="K72"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="15" t="s">
         <v>203</v>
       </c>
@@ -4986,7 +4976,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" ht="13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="20" t="s">
         <v>204</v>
       </c>
@@ -4995,7 +4985,7 @@
       </c>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="17" t="s">
         <v>187</v>
       </c>
@@ -5003,7 +4993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="17" t="s">
         <v>329</v>
       </c>
@@ -5011,7 +5001,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="17" t="s">
         <v>190</v>
       </c>
@@ -5019,7 +5009,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="17" t="s">
         <v>192</v>
       </c>
@@ -5027,7 +5017,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="17" t="s">
         <v>193</v>
       </c>
@@ -5035,7 +5025,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="17" t="s">
         <v>195</v>
       </c>
@@ -5043,7 +5033,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="17" t="s">
         <v>197</v>
       </c>
@@ -5051,7 +5041,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="17" t="s">
         <v>199</v>
       </c>
@@ -5059,7 +5049,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="17" t="s">
         <v>201</v>
       </c>
@@ -5067,7 +5057,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A84" s="19" t="s">
         <v>208</v>
       </c>
@@ -5075,7 +5065,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A85" s="19" t="s">
         <v>209</v>
       </c>
@@ -5083,7 +5073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.15">
       <c r="A86" s="19" t="s">
         <v>330</v>
       </c>
@@ -5091,12 +5081,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>119</v>
       </c>
@@ -5104,7 +5094,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>121</v>
       </c>
@@ -5112,7 +5102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
@@ -5120,7 +5110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>125</v>
       </c>
@@ -5128,7 +5118,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
@@ -5136,7 +5126,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>129</v>
       </c>
@@ -5144,7 +5134,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5152,7 +5142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>133</v>
       </c>
@@ -5160,7 +5150,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
@@ -5168,7 +5158,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>137</v>
       </c>
@@ -5176,7 +5166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>139</v>
       </c>
@@ -5184,7 +5174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
@@ -5192,7 +5182,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>143</v>
       </c>
@@ -5200,7 +5190,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>145</v>
       </c>
@@ -5208,7 +5198,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>147</v>
       </c>
@@ -5216,7 +5206,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>149</v>
       </c>
@@ -5224,7 +5214,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -5232,7 +5222,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>153</v>
       </c>
@@ -5240,7 +5230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>155</v>
       </c>
@@ -5248,7 +5238,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>157</v>
       </c>
@@ -5256,7 +5246,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
@@ -5264,7 +5254,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -5272,7 +5262,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>163</v>
       </c>
@@ -5280,7 +5270,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>165</v>
       </c>
@@ -5288,7 +5278,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>167</v>
       </c>
@@ -5296,7 +5286,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -5304,7 +5294,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -5312,7 +5302,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>133</v>
       </c>
@@ -5320,7 +5310,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>172</v>
       </c>
@@ -5328,7 +5318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>174</v>
       </c>
@@ -5336,7 +5326,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>176</v>
       </c>
@@ -5344,7 +5334,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>178</v>
       </c>
@@ -5352,7 +5342,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>180</v>
       </c>
@@ -5360,7 +5350,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>182</v>
       </c>
@@ -5368,7 +5358,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>184</v>
       </c>
@@ -5376,12 +5366,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>220</v>
       </c>
@@ -5389,7 +5379,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>222</v>
       </c>
@@ -5397,7 +5387,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>223</v>
       </c>
@@ -5405,7 +5395,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>224</v>
       </c>
@@ -5413,7 +5403,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>332</v>
       </c>
@@ -5421,12 +5411,12 @@
         <v>333</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" s="22" t="s">
         <v>55</v>
       </c>
@@ -5435,7 +5425,7 @@
       </c>
       <c r="C133" s="29"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -5444,7 +5434,7 @@
       </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>338</v>
       </c>
@@ -5453,7 +5443,7 @@
       </c>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>340</v>
       </c>
@@ -5462,7 +5452,7 @@
       </c>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>342</v>
       </c>
@@ -5471,7 +5461,7 @@
       </c>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>344</v>
       </c>
@@ -5480,7 +5470,7 @@
       </c>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>346</v>
       </c>
@@ -5489,7 +5479,7 @@
       </c>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>348</v>
       </c>
@@ -5498,7 +5488,7 @@
       </c>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>350</v>
       </c>
@@ -5507,7 +5497,7 @@
       </c>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>352</v>
       </c>
@@ -5516,7 +5506,7 @@
       </c>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>354</v>
       </c>
@@ -5525,7 +5515,7 @@
       </c>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>356</v>
       </c>
@@ -5534,7 +5524,7 @@
       </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>358</v>
       </c>
@@ -5543,7 +5533,7 @@
       </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>360</v>
       </c>
@@ -5552,7 +5542,7 @@
       </c>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>362</v>
       </c>
@@ -5561,7 +5551,7 @@
       </c>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>364</v>
       </c>
@@ -5570,7 +5560,7 @@
       </c>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>366</v>
       </c>
@@ -5579,7 +5569,7 @@
       </c>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>368</v>
       </c>
@@ -5588,7 +5578,7 @@
       </c>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>370</v>
       </c>
@@ -5597,7 +5587,7 @@
       </c>
       <c r="C151" s="1"/>
     </row>
-    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" s="14" t="s">
         <v>372</v>
       </c>
@@ -5605,52 +5595,52 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" s="30" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" s="30" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" s="30" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" s="30" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="30" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="30" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="15" t="s">
         <v>380</v>
       </c>
@@ -5658,3157 +5648,3157 @@
         <v>381</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A330" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A331" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A338" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A339" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A340" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A341" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A342" s="5" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A343" s="5" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A344" s="5" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A345" s="5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A346" s="5" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A347" s="5" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A348" s="5" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A349" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A350" s="5" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A499" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A751" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
         <v>936</v>
       </c>
@@ -8828,10 +8818,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Community/Pit_Dig.xlsx
+++ b/Community/Pit_Dig.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/John/Documents/Survey123Community/Community/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phil9289\Downloads\Survey123\Community\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13180" tabRatio="203"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="13185" tabRatio="203"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="940">
   <si>
     <t>type</t>
   </si>
@@ -810,18 +810,9 @@
     <t>submission_url</t>
   </si>
   <si>
-    <t>${Name} + " " +  ${Type}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name </t>
-  </si>
-  <si>
     <t>Dig Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Dig Type</t>
   </si>
   <si>
@@ -843,9 +834,6 @@
     <t>Cardinal direction</t>
   </si>
   <si>
-    <t>${CardCom}='Cardinal'</t>
-  </si>
-  <si>
     <t>Compass</t>
   </si>
   <si>
@@ -858,9 +846,6 @@
     <t>Value must be an integer between 0 and 360</t>
   </si>
   <si>
-    <t>${CardCom}='Compass'</t>
-  </si>
-  <si>
     <t>length</t>
   </si>
   <si>
@@ -879,21 +864,9 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>NoteCardinal</t>
-  </si>
-  <si>
     <t>&lt;center&gt;Summary&lt;/center&gt;</t>
   </si>
   <si>
-    <t>concat("Your dig is ", ${length} , " m by ", ${width} , " m  in the ",  ${Cardinal} , " direction")</t>
-  </si>
-  <si>
-    <t>NoteCompass</t>
-  </si>
-  <si>
-    <t>concat("Your dig is ", ${length} , " metres by ", ${width} , " metres towards ",  ${Compass} , " degrees")</t>
-  </si>
-  <si>
     <t>Cardinal Direction</t>
   </si>
   <si>
@@ -2848,13 +2821,46 @@
   </si>
   <si>
     <t>default_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>cardcom</t>
+  </si>
+  <si>
+    <t>cardinal</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>notecardinal</t>
+  </si>
+  <si>
+    <t>notecompass</t>
+  </si>
+  <si>
+    <t>${cardcom}='Cardinal'</t>
+  </si>
+  <si>
+    <t>${cardcom}='Compass'</t>
+  </si>
+  <si>
+    <t>concat("Your dig is ", ${length} , " m by ", ${width} , " m  in the ",  ${cardinal} , " direction")</t>
+  </si>
+  <si>
+    <t>concat("Your dig is ", ${length} , " metres by ", ${width} , " metres towards ",  ${compass} , " degrees")</t>
+  </si>
+  <si>
+    <t>${name} + " " +  ${type}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3615,7 +3621,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3657,7 +3663,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3680,19 +3686,19 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1"/>
-    <col min="6" max="6" width="24.5" style="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1"/>
+    <col min="6" max="6" width="24.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" s="27" customFormat="1" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3774,112 +3780,112 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>929</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" customHeight="1">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="I4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>931</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E5" s="1"/>
       <c r="I5" t="s">
         <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="16.5" customHeight="1">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>932</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="16.5" customHeight="1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" ht="16.5" customHeight="1">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3887,48 +3893,48 @@
         <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E9" s="1"/>
       <c r="I9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" ht="16.5" customHeight="1">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>933</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L10" t="s">
-        <v>269</v>
+        <v>935</v>
       </c>
       <c r="M10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="16.5" customHeight="1">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>934</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L11" t="s">
-        <v>274</v>
+        <v>936</v>
       </c>
       <c r="M11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" customHeight="1">
       <c r="A12" t="s">
         <v>211</v>
       </c>
@@ -3936,7 +3942,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" ht="16.5" customHeight="1">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" ht="16.5" customHeight="1">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -4029,19 +4035,19 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid XLSForm Type" error="Please select yes if you are using a select_one or select_multiple XLS Form Type._x000a_Otherwise, please enter a valid XLS Form Type. " promptTitle="Enter a supported XLSForm type" prompt="Please select an XLS Form Type form the supplied list. Enter a valid list name if using a select_one or select_multiple XLS Form Type.">
           <x14:formula1>
-            <xm:f>[1]types!#REF!</xm:f>
+            <xm:f>'C:\Users\tina8678\Downloads\[Pit_Dig (1).xlsx]types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A238</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Appearance" prompt="Select the appearance of this field in your survey. See 'types' for more information.">
           <x14:formula1>
-            <xm:f>[1]types!#REF!</xm:f>
+            <xm:f>'C:\Users\tina8678\Downloads\[Pit_Dig (1).xlsx]types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H238</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required" prompt="Select 'yes' to require a value in this field before completing the survey.">
           <x14:formula1>
-            <xm:f>[1]types!#REF!</xm:f>
+            <xm:f>'C:\Users\tina8678\Downloads\[Pit_Dig (1).xlsx]types'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G238</xm:sqref>
         </x14:dataValidation>
@@ -4072,15 +4078,15 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -4097,202 +4103,202 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
         <v>264</v>
       </c>
-      <c r="B2" t="s">
-        <v>267</v>
-      </c>
       <c r="C2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
         <v>264</v>
       </c>
-      <c r="B3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
         <v>288</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
         <v>290</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C11" t="s">
         <v>292</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C12" t="s">
         <v>294</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C13" t="s">
         <v>296</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C14" t="s">
         <v>298</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C15" t="s">
         <v>300</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C16" t="s">
         <v>302</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C17" t="s">
         <v>304</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C18" t="s">
         <v>306</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C19" t="s">
         <v>308</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C20" t="s">
         <v>310</v>
-      </c>
-      <c r="C16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4310,20 +4316,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -4337,18 +4341,18 @@
         <v>257</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="C7" s="11"/>
     </row>
   </sheetData>
@@ -4364,19 +4368,19 @@
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="74.5" customWidth="1"/>
-    <col min="3" max="3" width="52.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4406,7 +4410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="25.5">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -4417,7 +4421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -4447,7 +4451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -4463,7 +4467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>249</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4479,7 +4483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4503,7 +4507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="25.5">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="25.5">
       <c r="A19" s="1" t="s">
         <v>217</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="25.5">
       <c r="A20" s="1" t="s">
         <v>218</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="38.25">
       <c r="A21" s="1" t="s">
         <v>230</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>246</v>
       </c>
@@ -4551,7 +4555,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>211</v>
       </c>
@@ -4559,7 +4563,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>212</v>
       </c>
@@ -4567,17 +4571,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4585,21 +4589,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="B31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4607,12 +4611,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="25" t="s">
         <v>228</v>
       </c>
@@ -4620,15 +4624,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4636,7 +4640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>240</v>
       </c>
@@ -4644,7 +4648,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>244</v>
       </c>
@@ -4652,7 +4656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>245</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>251</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>242</v>
       </c>
@@ -4676,31 +4680,31 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -4708,20 +4712,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -4729,7 +4733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12">
       <c r="A53" s="14" t="s">
         <v>233</v>
       </c>
@@ -4745,12 +4749,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" s="8" customFormat="1">
       <c r="A55" s="14"/>
       <c r="B55"/>
       <c r="C55" s="5"/>
@@ -4764,7 +4768,7 @@
       <c r="K55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12">
       <c r="A56" s="14" t="s">
         <v>98</v>
       </c>
@@ -4781,7 +4785,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12">
       <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -4902,7 +4906,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
         <v>87</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -4935,7 +4939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" s="22" customFormat="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="6"/>
@@ -4960,7 +4964,7 @@
       <c r="K72"/>
       <c r="L72"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12">
       <c r="A73" s="15" t="s">
         <v>203</v>
       </c>
@@ -4976,7 +4980,7 @@
       <c r="K73" s="22"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12">
       <c r="A74" s="20" t="s">
         <v>204</v>
       </c>
@@ -4985,7 +4989,7 @@
       </c>
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12">
       <c r="A75" s="17" t="s">
         <v>187</v>
       </c>
@@ -4993,15 +4997,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12">
       <c r="A76" s="17" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12">
       <c r="A77" s="17" t="s">
         <v>190</v>
       </c>
@@ -5009,7 +5013,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12">
       <c r="A78" s="17" t="s">
         <v>192</v>
       </c>
@@ -5017,7 +5021,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12">
       <c r="A79" s="17" t="s">
         <v>193</v>
       </c>
@@ -5025,7 +5029,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12">
       <c r="A80" s="17" t="s">
         <v>195</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" s="17" t="s">
         <v>197</v>
       </c>
@@ -5041,7 +5045,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" s="17" t="s">
         <v>199</v>
       </c>
@@ -5049,7 +5053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" s="17" t="s">
         <v>201</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" s="19" t="s">
         <v>208</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" s="19" t="s">
         <v>209</v>
       </c>
@@ -5073,20 +5077,20 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" s="19" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" s="9" t="s">
         <v>119</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>121</v>
       </c>
@@ -5102,7 +5106,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2" ht="25.5">
       <c r="A92" s="1" t="s">
         <v>125</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>129</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>131</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>133</v>
       </c>
@@ -5150,7 +5154,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>135</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>137</v>
       </c>
@@ -5166,7 +5170,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>139</v>
       </c>
@@ -5174,7 +5178,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>141</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>143</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>145</v>
       </c>
@@ -5198,7 +5202,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>147</v>
       </c>
@@ -5206,7 +5210,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>149</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>153</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>155</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>157</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>159</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>163</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>165</v>
       </c>
@@ -5278,7 +5282,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>167</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -5294,7 +5298,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>135</v>
       </c>
@@ -5302,7 +5306,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>133</v>
       </c>
@@ -5310,7 +5314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>172</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>174</v>
       </c>
@@ -5326,7 +5330,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2" ht="25.5">
       <c r="A119" s="1" t="s">
         <v>176</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>178</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>180</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>182</v>
       </c>
@@ -5358,7 +5362,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>184</v>
       </c>
@@ -5366,12 +5370,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>220</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>222</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>223</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>224</v>
       </c>
@@ -5403,3404 +5407,3404 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B133" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C133" s="29"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C133" s="29"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A134" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A135" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A136" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A137" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A138" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A139" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A140" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A141" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A142" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A143" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A144" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A145" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A146" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A147" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A148" s="1" t="s">
+      <c r="B153" t="s">
         <v>364</v>
       </c>
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A149" s="1" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A150" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A151" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A153" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B153" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A154" s="30" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A155" s="30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A156" s="30" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3">
       <c r="A158" s="30" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3">
       <c r="A160" s="30" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B164" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162" s="30" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164" s="15" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>380</v>
       </c>
-      <c r="B164" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165" s="1" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A194" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A195" t="s">
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A196" t="s">
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A197" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A198" t="s">
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A199" t="s">
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A200" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A201" t="s">
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A202" t="s">
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A203" t="s">
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A204" t="s">
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A206" t="s">
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" t="s">
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A208" t="s">
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A209" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A210" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A211" t="s">
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A212" t="s">
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A213" t="s">
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A214" t="s">
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A215" t="s">
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A217" t="s">
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A218" t="s">
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A219" t="s">
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A221" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A222" t="s">
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A223" t="s">
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A224" t="s">
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A225" t="s">
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A226" t="s">
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A227" t="s">
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A228" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A229" t="s">
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A230" t="s">
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A231" t="s">
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A233" t="s">
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A234" t="s">
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A235" t="s">
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A236" t="s">
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A237" t="s">
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A238" t="s">
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" t="s">
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A243" t="s">
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A245" t="s">
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A247" t="s">
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A248" t="s">
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A249" t="s">
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A250" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A251" t="s">
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A252" t="s">
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A253" t="s">
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A254" t="s">
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A256" t="s">
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A258" t="s">
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A259" t="s">
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A260" t="s">
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A261" t="s">
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A262" t="s">
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A263" t="s">
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A264" t="s">
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A265" t="s">
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A266" t="s">
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A268" t="s">
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A269" t="s">
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A270" t="s">
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A271" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A272" t="s">
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A273" t="s">
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A274" t="s">
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A275" t="s">
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A276" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A277" t="s">
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A278" t="s">
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A279" t="s">
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A280" t="s">
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A281" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" s="5" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A282" t="s">
+    <row r="291" spans="1:1">
+      <c r="A291" s="5" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A283" t="s">
+    <row r="292" spans="1:1">
+      <c r="A292" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A284" t="s">
+    <row r="293" spans="1:1">
+      <c r="A293" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A285" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A286" t="s">
+    <row r="295" spans="1:1">
+      <c r="A295" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A287" t="s">
+    <row r="296" spans="1:1">
+      <c r="A296" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A288" t="s">
+    <row r="297" spans="1:1">
+      <c r="A297" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A289" t="s">
+    <row r="298" spans="1:1">
+      <c r="A298" s="5" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" s="5" t="s">
+    <row r="299" spans="1:1">
+      <c r="A299" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A291" s="5" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="5" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A292" s="5" t="s">
+    <row r="301" spans="1:1">
+      <c r="A301" s="5" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A293" s="5" t="s">
+    <row r="302" spans="1:1">
+      <c r="A302" s="5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A294" s="5" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="5" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A295" s="5" t="s">
+    <row r="304" spans="1:1">
+      <c r="A304" s="5" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A296" s="5" t="s">
+    <row r="305" spans="1:1">
+      <c r="A305" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A297" s="5" t="s">
+    <row r="306" spans="1:1">
+      <c r="A306" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A298" s="5" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A299" s="5" t="s">
+    <row r="308" spans="1:1">
+      <c r="A308" s="5" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A300" s="5" t="s">
+    <row r="309" spans="1:1">
+      <c r="A309" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A301" s="5" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A302" s="5" t="s">
+    <row r="311" spans="1:1">
+      <c r="A311" s="5" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A303" s="5" t="s">
+    <row r="312" spans="1:1">
+      <c r="A312" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A304" s="5" t="s">
+    <row r="313" spans="1:1">
+      <c r="A313" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A305" s="5" t="s">
+    <row r="314" spans="1:1">
+      <c r="A314" s="5" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A306" s="5" t="s">
+    <row r="315" spans="1:1">
+      <c r="A315" s="5" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A307" s="5" t="s">
+    <row r="316" spans="1:1">
+      <c r="A316" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A308" s="5" t="s">
+    <row r="317" spans="1:1">
+      <c r="A317" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A309" s="5" t="s">
+    <row r="318" spans="1:1">
+      <c r="A318" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A310" s="5" t="s">
+    <row r="319" spans="1:1">
+      <c r="A319" s="5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A311" s="5" t="s">
+    <row r="320" spans="1:1">
+      <c r="A320" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A312" s="5" t="s">
+    <row r="321" spans="1:1">
+      <c r="A321" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A313" s="5" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="5" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A314" s="5" t="s">
+    <row r="323" spans="1:1">
+      <c r="A323" s="5" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A315" s="5" t="s">
+    <row r="324" spans="1:1">
+      <c r="A324" s="5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A316" s="5" t="s">
+    <row r="325" spans="1:1">
+      <c r="A325" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A317" s="5" t="s">
+    <row r="326" spans="1:1">
+      <c r="A326" s="5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A318" s="5" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A319" s="5" t="s">
+    <row r="328" spans="1:1">
+      <c r="A328" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A320" s="5" t="s">
+    <row r="329" spans="1:1">
+      <c r="A329" s="5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A321" s="5" t="s">
+    <row r="330" spans="1:1">
+      <c r="A330" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A322" s="5" t="s">
+    <row r="331" spans="1:1">
+      <c r="A331" s="5" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A323" s="5" t="s">
+    <row r="332" spans="1:1">
+      <c r="A332" s="5" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A324" s="5" t="s">
+    <row r="333" spans="1:1">
+      <c r="A333" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" s="5" t="s">
+    <row r="334" spans="1:1">
+      <c r="A334" s="5" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A326" s="5" t="s">
+    <row r="335" spans="1:1">
+      <c r="A335" s="5" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A327" s="5" t="s">
+    <row r="336" spans="1:1">
+      <c r="A336" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A328" s="5" t="s">
+    <row r="337" spans="1:1">
+      <c r="A337" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A329" s="5" t="s">
+    <row r="338" spans="1:1">
+      <c r="A338" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A330" s="5" t="s">
+    <row r="339" spans="1:1">
+      <c r="A339" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A331" s="5" t="s">
+    <row r="340" spans="1:1">
+      <c r="A340" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A332" s="5" t="s">
+    <row r="341" spans="1:1">
+      <c r="A341" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A333" s="5" t="s">
+    <row r="342" spans="1:1">
+      <c r="A342" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A334" s="5" t="s">
+    <row r="343" spans="1:1">
+      <c r="A343" s="5" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A335" s="5" t="s">
+    <row r="344" spans="1:1">
+      <c r="A344" s="5" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A336" s="5" t="s">
+    <row r="345" spans="1:1">
+      <c r="A345" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A337" s="5" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A338" s="5" t="s">
+    <row r="347" spans="1:1">
+      <c r="A347" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A339" s="5" t="s">
+    <row r="348" spans="1:1">
+      <c r="A348" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A340" s="5" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A341" s="5" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="5" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A342" s="5" t="s">
+    <row r="351" spans="1:1">
+      <c r="A351" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A343" s="5" t="s">
+    <row r="352" spans="1:1">
+      <c r="A352" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A344" s="5" t="s">
+    <row r="353" spans="1:1">
+      <c r="A353" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A345" s="5" t="s">
+    <row r="354" spans="1:1">
+      <c r="A354" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A346" s="5" t="s">
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A347" s="5" t="s">
+    <row r="356" spans="1:1">
+      <c r="A356" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A348" s="5" t="s">
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A349" s="5" t="s">
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A350" s="5" t="s">
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A351" t="s">
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A352" t="s">
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A353" t="s">
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" t="s">
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A355" t="s">
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A356" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A357" t="s">
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A358" t="s">
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A359" t="s">
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A360" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A361" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A362" t="s">
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A363" t="s">
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A364" t="s">
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A365" t="s">
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A366" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A367" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A368" t="s">
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A369" t="s">
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A370" t="s">
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A371" t="s">
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A372" t="s">
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A373" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A374" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A375" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A376" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A377" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A378" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A379" t="s">
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A380" t="s">
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A381" t="s">
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A382" t="s">
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A383" t="s">
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A385" t="s">
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A386" t="s">
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A387" t="s">
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A388" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A389" t="s">
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A390" t="s">
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A391" t="s">
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A392" t="s">
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A393" t="s">
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A394" t="s">
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A395" t="s">
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A396" t="s">
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A397" t="s">
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A398" t="s">
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A399" t="s">
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A400" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A401" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A402" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A403" t="s">
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A404" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A405" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A406" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A407" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A408" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A409" t="s">
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A410" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A411" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A412" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A413" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A414" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A415" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A416" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A417" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A418" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A419" t="s">
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A420" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A421" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A422" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A423" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A424" t="s">
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A425" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A426" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A427" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A428" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A429" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A430" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A431" t="s">
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A432" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A433" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A434" t="s">
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A435" t="s">
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A436" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A437" t="s">
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A438" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A439" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A440" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A441" t="s">
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A442" t="s">
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A443" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A444" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A445" t="s">
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A446" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A447" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A448" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A449" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A450" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A451" t="s">
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A452" t="s">
+    <row r="463" spans="1:1">
+      <c r="A463" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A453" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A454" t="s">
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A455" t="s">
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A456" t="s">
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A457" t="s">
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A458" t="s">
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A459" t="s">
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A460" t="s">
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A461" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A462" t="s">
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A463" t="s">
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A464" t="s">
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A465" t="s">
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A466" t="s">
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A467" t="s">
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A468" t="s">
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A469" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A470" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A471" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A472" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A473" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A474" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A475" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A476" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A477" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A478" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A479" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A480" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A481" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A482" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A483" t="s">
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A484" t="s">
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A485" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A486" t="s">
+    <row r="498" spans="1:1">
+      <c r="A498" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A487" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A488" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A489" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A490" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A491" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A492" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A493" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A494" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A495" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A496" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A497" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A498" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:1">
       <c r="A499" s="31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.15">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
       <c r="A501" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A502" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A503" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A504" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A505" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A506" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A507" t="s">
+    <row r="524" spans="1:1">
+      <c r="A524" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A508" t="s">
+    <row r="526" spans="1:1">
+      <c r="A526" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A509" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A510" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A511" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A512" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A513" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A514" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A515" t="s">
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A516" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A517" t="s">
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A518" t="s">
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A519" t="s">
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A520" t="s">
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A521" t="s">
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A522" t="s">
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A523" t="s">
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A524" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A525" t="s">
+    <row r="538" spans="1:1">
+      <c r="A538" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A526" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A527" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A528" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A529" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A530" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A531" t="s">
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A532" t="s">
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A533" t="s">
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A534" t="s">
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A535" t="s">
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A536" t="s">
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A537" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A538" t="s">
+    <row r="552" spans="1:1">
+      <c r="A552" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A539" t="s">
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A540" t="s">
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A541" t="s">
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A542" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A543" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A544" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A545" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A546" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A547" t="s">
+    <row r="563" spans="1:1">
+      <c r="A563" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A548" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A549" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A550" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A551" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A552" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A553" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A554" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A555" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A556" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A557" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A558" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A559" t="s">
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A560" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A561" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A562" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A563" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A564" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A565" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A566" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A567" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A568" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A569" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A570" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A571" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A572" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A573" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A574" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A575" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A576" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A577" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A578" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A579" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A580" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A581" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A582" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A583" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A584" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A585" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A586" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A587" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A588" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A589" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A590" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A591" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A592" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A593" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A594" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A595" t="s">
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A596" t="s">
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A597" t="s">
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A598" t="s">
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A599" t="s">
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A600" t="s">
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A601" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A602" t="s">
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A603" t="s">
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A604" t="s">
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A605" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A606" t="s">
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A607" t="s">
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A608" t="s">
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A609" t="s">
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A610" t="s">
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A611" t="s">
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A612" t="s">
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A613" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A614" t="s">
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A615" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A616" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A617" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A618" t="s">
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A619" t="s">
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A620" t="s">
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A621" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A622" t="s">
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A623" t="s">
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A624" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A625" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A626" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A627" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A628" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A629" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A630" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A631" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A632" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A633" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A634" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A635" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A636" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A637" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A638" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A639" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A640" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A641" t="s">
+    <row r="652" spans="1:1">
+      <c r="A652" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A642" t="s">
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A643" t="s">
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A644" t="s">
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A645" t="s">
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A646" t="s">
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A647" t="s">
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A648" t="s">
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A649" t="s">
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A650" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A651" t="s">
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A652" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A653" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A654" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A655" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A656" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A657" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A658" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A659" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A660" t="s">
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A661" t="s">
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A662" t="s">
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A663" t="s">
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A664" t="s">
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A665" t="s">
+    <row r="676" spans="1:1">
+      <c r="A676" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A666" t="s">
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A667" t="s">
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A668" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A669" t="s">
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A670" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A671" t="s">
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A672" t="s">
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A673" t="s">
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A674" t="s">
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A675" t="s">
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A676" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A677" t="s">
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A678" t="s">
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A679" t="s">
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A680" t="s">
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A681" t="s">
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A682" t="s">
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A683" t="s">
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A684" t="s">
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A685" t="s">
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A686" t="s">
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A687" t="s">
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A688" t="s">
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A689" t="s">
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A690" t="s">
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A691" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A692" t="s">
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A693" t="s">
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A694" t="s">
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A695" t="s">
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A696" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A697" t="s">
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A698" t="s">
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A699" t="s">
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A700" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A701" t="s">
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A702" t="s">
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A703" t="s">
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A704" t="s">
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A705" t="s">
+    <row r="714" spans="1:1">
+      <c r="A714" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A706" t="s">
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A707" t="s">
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A708" t="s">
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A709" t="s">
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A710" t="s">
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A711" t="s">
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A712" t="s">
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A713" t="s">
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A714" t="s">
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A715" t="s">
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A716" t="s">
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A717" t="s">
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A718" t="s">
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A719" t="s">
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A720" t="s">
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A721" t="s">
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A722" t="s">
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A723" t="s">
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A724" t="s">
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A725" t="s">
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A726" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A727" t="s">
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A728" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A729" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A730" t="s">
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A731" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A732" t="s">
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A733" t="s">
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A734" t="s">
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A735" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A736" t="s">
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A737" t="s">
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A738" t="s">
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A739" t="s">
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A740" t="s">
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A741" t="s">
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A742" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A743" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A744" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A745" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A746" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A747" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A748" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A749" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A750" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="751" spans="1:1">
       <c r="A751" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="752" spans="1:1">
       <c r="A752" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A753" t="s">
+    <row r="765" spans="1:1">
+      <c r="A765" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A754" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A755" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A756" t="s">
+    <row r="766" spans="1:1">
+      <c r="A766" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A757" t="s">
+    <row r="767" spans="1:1">
+      <c r="A767" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A758" t="s">
+    <row r="768" spans="1:1">
+      <c r="A768" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A759" t="s">
+    <row r="769" spans="1:1">
+      <c r="A769" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A760" t="s">
+    <row r="770" spans="1:1">
+      <c r="A770" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A761" t="s">
+    <row r="771" spans="1:1">
+      <c r="A771" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A762" t="s">
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A763" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A764" t="s">
+    <row r="773" spans="1:1">
+      <c r="A773" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A765" t="s">
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A766" t="s">
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A767" t="s">
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A768" t="s">
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A769" t="s">
+    <row r="780" spans="1:1">
+      <c r="A780" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A770" t="s">
+    <row r="781" spans="1:1">
+      <c r="A781" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A771" t="s">
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A772" t="s">
+    <row r="784" spans="1:1">
+      <c r="A784" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A773" t="s">
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A774" t="s">
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A775" t="s">
+    <row r="787" spans="1:1">
+      <c r="A787" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A776" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A777" t="s">
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A778" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A779" t="s">
+    <row r="789" spans="1:1">
+      <c r="A789" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A780" t="s">
+    <row r="790" spans="1:1">
+      <c r="A790" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A781" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A782" t="s">
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A783" t="s">
+    <row r="792" spans="1:1">
+      <c r="A792" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A784" t="s">
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A785" t="s">
+    <row r="794" spans="1:1">
+      <c r="A794" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A786" t="s">
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
         <v>927</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A787" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A788" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A789" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A790" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A791" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A792" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A793" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A794" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A795" t="s">
-        <v>936</v>
       </c>
     </row>
   </sheetData>
